--- a/data/trans_camb/P19C08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 0,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; -0,25</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-16,73%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -853,42 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,08</t>
         </is>
       </c>
     </row>
@@ -959,42 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 3,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 1,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 1,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 0,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 1,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 1,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 0,18</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>402,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,64%</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1333,22 +1333,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 1,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1363,17 +1363,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 1,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 0,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 0,0</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>154,78%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>314,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 1,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 1,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; -0,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; -0,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 0,71</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,27%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,24%</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,75; 290,78</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1775,37 +1775,37 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 4,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 0,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 2,44</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 0,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 0,91</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>293,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,13%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>351,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,86%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 1,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 0,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 3,18</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 0,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 1,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 1,19</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 0,74</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 0,6</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 1,55</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>267,24%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>555,94%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,81%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,0%</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,83; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 516,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,71; 1184,25</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 0,96</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; -0,17</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 0,89</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 0,3</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; -0,31</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 0,63</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 0,28</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; -0,39</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,46</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,86%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,22%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,97%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,63%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,08%</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,95; 633,63</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -2313,12 +2313,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,53; 474,48</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 185,33</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,5; 204,18</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,58; 88,05</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,13; 105,84</t>
         </is>
       </c>
     </row>
@@ -2360,42 +2360,42 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 0,68</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 0,05</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 0,54</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 0,46</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 0,0</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,19</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 0,46</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; -0,05</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 0,26</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,63%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,61%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,75%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,98%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,28%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,48; 342,78</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,41; 50,28</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,05; 268,7</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,55; 144,21</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,73; 17,98</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,33; 64,15</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,08; 149,96</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,2; -15,72</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,94; 91,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 1,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 1,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 0,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,94; 372,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,15</t>
+          <t>0,0; 0,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,34</t>
+          <t>-1,81; 0,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-56,74%</t>
+          <t>-57,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-57,64%</t>
+          <t>-59,1%</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,93</t>
+          <t>-0,45; 3,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,33</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,28</t>
+          <t>-0,14; 1,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>154,78%</t>
+          <t>195,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>314,75%</t>
+          <t>283,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,0</t>
+          <t>-2,8; 1,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,71</t>
+          <t>-1,46; 0,73</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-22,27%</t>
+          <t>-20,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-11,24%</t>
+          <t>-10,06%</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-87,75; 290,78</t>
+          <t>-87,28; 297,29</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,91</t>
+          <t>-0,62; 1,01</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-54,13%</t>
+          <t>-54,05%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>40,02%</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,53</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,18</t>
+          <t>0,21; 3,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,19</t>
+          <t>-0,82; 1,07</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,55</t>
+          <t>-0,15; 1,44</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>555,94%</t>
+          <t>549,82%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>154,0%</t>
+          <t>135,82%</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-75,83; —</t>
+          <t>-80,73; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 1184,25</t>
+          <t>-47,83; 1104,55</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,21</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,89</t>
+          <t>-1,15; 0,65</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,63</t>
+          <t>-1,35; 0,61</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,46</t>
+          <t>-1,01; 0,34</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>-19,26%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-27,97%</t>
+          <t>-28,53%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-15,08%</t>
+          <t>-26,02%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-77,53; 474,48</t>
+          <t>-85,22; 302,87</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-82,5; 204,18</t>
+          <t>-82,24; 196,4</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-69,13; 105,84</t>
+          <t>-75,29; 84,44</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,54</t>
+          <t>-0,22; 0,49</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,19</t>
+          <t>-0,53; 0,15</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,26</t>
+          <t>-0,27; 0,22</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-23,98%</t>
+          <t>-30,04%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>-7,8%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 268,7</t>
+          <t>-49,4; 246,07</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-64,33; 64,15</t>
+          <t>-66,9; 51,63</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 91,58</t>
+          <t>-47,82; 68,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,25</t>
+          <t>-2,23; 1,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,53</t>
+          <t>-2,12; 1,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,0</t>
+          <t>-3,52; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,21</t>
+          <t>-2,17; 1,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,0</t>
+          <t>-3,2; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,0</t>
+          <t>-3,59; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,85</t>
+          <t>-1,64; 0,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,39</t>
+          <t>-2,0; 0,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; -0,25</t>
+          <t>-2,32; -0,25</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-87,94; 372,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,08</t>
+          <t>0,0; 0,07</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,03</t>
+          <t>0,34; 3,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,77</t>
+          <t>-0,6; 1,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,9</t>
+          <t>-0,8; 1,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,33</t>
+          <t>-1,6; 0,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,88</t>
+          <t>0,1; 1,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,14</t>
+          <t>-0,29; 1,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,18</t>
+          <t>-0,87; 0,18</t>
         </is>
       </c>
     </row>
@@ -1333,22 +1333,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,47</t>
+          <t>-0,44; 3,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,0</t>
+          <t>-2,11; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,0</t>
+          <t>-2,01; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,71</t>
+          <t>-0,17; 1,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,0</t>
+          <t>-0,81; 0,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,0</t>
+          <t>-2,77; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,0</t>
+          <t>-2,77; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,16</t>
+          <t>-1,66; 1,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 0,0</t>
+          <t>-3,74; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,0</t>
+          <t>-3,75; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,02</t>
+          <t>-2,44; 1,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,2; -0,27</t>
+          <t>-2,28; -0,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; -0,26</t>
+          <t>-2,18; -0,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,73</t>
+          <t>-1,34; 0,81</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-87,28; 297,29</t>
+          <t>-84,28; 386,33</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1775,37 +1775,37 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,34</t>
+          <t>-0,25; 4,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 0,53</t>
+          <t>-2,46; 0,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 2,44</t>
+          <t>-0,02; 2,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,0</t>
+          <t>-1,51; 0,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,01</t>
+          <t>-0,68; 1,01</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,85</t>
+          <t>-0,19; 1,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,0</t>
+          <t>-0,96; 0,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,15</t>
+          <t>0,08; 2,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,4</t>
+          <t>-1,2; 0,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,38</t>
+          <t>-0,76; 1,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,07</t>
+          <t>-0,8; 1,11</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,74</t>
+          <t>-0,46; 0,72</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,6</t>
+          <t>-0,51; 0,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,44</t>
+          <t>-0,12; 1,48</t>
         </is>
       </c>
     </row>
@@ -2112,22 +2112,22 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-80,73; —</t>
+          <t>-77,28; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,58; 522,42</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 516,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 1104,55</t>
+          <t>-37,57; 845,56</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,96</t>
+          <t>-1,05; 0,81</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,72; -0,17</t>
+          <t>-1,73; -0,18</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,65</t>
+          <t>-1,17; 0,71</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,3</t>
+          <t>-1,71; 0,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,14; -0,31</t>
+          <t>-2,09; -0,31</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,61</t>
+          <t>-1,44; 0,54</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,28</t>
+          <t>-1,03; 0,31</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,58; -0,39</t>
+          <t>-1,68; -0,41</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,34</t>
+          <t>-0,92; 0,4</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-81,95; 633,63</t>
+          <t>-85,09; 445,77</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -2313,12 +2313,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-85,22; 302,87</t>
+          <t>-84,45; 309,02</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 185,33</t>
+          <t>-100,0; 151,36</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-82,24; 196,4</t>
+          <t>-82,82; 199,06</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-80,58; 88,05</t>
+          <t>-81,07; 84,28</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-75,29; 84,44</t>
+          <t>-71,62; 102,65</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 0,68</t>
+          <t>-0,08; 0,76</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,05</t>
+          <t>-0,48; 0,08</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,49</t>
+          <t>-0,24; 0,5</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,46</t>
+          <t>-0,33; 0,47</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,0</t>
+          <t>-0,66; -0,02</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,15</t>
+          <t>-0,51; 0,16</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,46</t>
+          <t>-0,1; 0,45</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,5; -0,05</t>
+          <t>-0,48; -0,05</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,22</t>
+          <t>-0,27; 0,21</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 342,78</t>
+          <t>-29,22; 394,86</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-91,41; 50,28</t>
+          <t>-92,62; 58,92</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 246,07</t>
+          <t>-50,8; 280,4</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-42,55; 144,21</t>
+          <t>-45,23; 130,68</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-89,73; 17,98</t>
+          <t>-90,01; 5,38</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-66,9; 51,63</t>
+          <t>-66,55; 49,69</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 149,96</t>
+          <t>-20,57; 137,44</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-85,2; -15,72</t>
+          <t>-83,67; -10,35</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-47,82; 68,19</t>
+          <t>-49,04; 65,62</t>
         </is>
       </c>
     </row>
